--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" name="TitleRegion..BO60" vbProcedure="false">'Project Planner'!$B$3:$B$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Project Planner'!$3:$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Project Planner'!$3:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Project Planner'!$3:$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -91,18 +92,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Corbel"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,100 +120,34 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
+      <sz val="42"/>
+      <color rgb="FF735773"/>
       <name val="Corbel"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Corbel"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF735773"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Corbel"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF404040"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF735773"/>
-      <name val="Corbel"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -222,39 +155,7 @@
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="42"/>
-      <color rgb="FF735773"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF735773"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -262,12 +163,14 @@
       <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -275,9 +178,10 @@
       <color rgb="FF735773"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,110 +190,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFF6DDB9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF735773"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFDCD5DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF735773"/>
-        <bgColor rgb="FF595959"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9AB51"/>
-        <bgColor rgb="FFD6BCA8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6BCA8"/>
-        <bgColor rgb="FFDCD5DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5A1B5"/>
-        <bgColor rgb="FFD6BCA8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DDB9"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCD5DC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -399,12 +210,8 @@
       <right style="thick">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -423,49 +230,12 @@
         <color rgb="FFD1871A"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFD1871A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD1871A"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF735773"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,259 +259,98 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="13" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="13" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="39" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="49" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="50" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="51" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="13" borderId="4" xfId="45" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="13" borderId="4" xfId="46" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="5" xfId="47" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="6" xfId="42" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="52" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="53" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="53" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="48" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="44" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="39" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="% complete" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Activity" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Actual legend" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Label" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Percent Complete" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Period Headers" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Period Highlight Control" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Period Value" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Plan legend" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Project Headers" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Title" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 3" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 4" xfId="54" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -756,6 +365,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -775,6 +385,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -794,6 +405,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -813,6 +425,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -832,6 +445,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -851,6 +465,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -870,6 +485,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -889,6 +505,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -908,6 +525,7 @@
     <dxf>
       <font>
         <name val="Corbel"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF404040"/>
       </font>
@@ -929,24 +547,24 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFD6BCA8"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFE9AB51"/>
       <rgbColor rgb="FF0066CC"/>
@@ -960,13 +578,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFF6DDB9"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFF6DDB9"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -978,11 +596,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF404040"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -997,7 +615,7 @@
   <dimension ref="B1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1005,72 +623,68 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="2" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="2" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="971" min="15" style="0" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="972" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
-    <row r="3" s="11" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12" t="s">
+    <row r="3" s="8" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
       <c r="AKJ3" s="0"/>
       <c r="AKK3" s="0"/>
       <c r="AKL3" s="0"/>
@@ -1126,152 +740,152 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="18" t="n">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="18" t="n">
+      <c r="J4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="18" t="n">
+      <c r="K4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="18" t="n">
+      <c r="L4" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="M4" s="18" t="n">
+      <c r="M4" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="N4" s="18" t="n">
+      <c r="N4" s="13" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21" t="n">
+      <c r="F5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21" t="n">
+      <c r="E6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21" t="n">
+      <c r="E7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <v>0</v>
+      <c r="E8" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21" t="n">
+      <c r="F9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="n">
+      <c r="E10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunus\cmpe131_project\Team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CB972-A9A8-4B5C-BF2D-C636F5E04870}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313232DB-374B-40A4-89D6-F2B406583B76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Project Planner</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Gantt Chart (MS3)</t>
+  </si>
+  <si>
+    <t>Bootstrap Theme/CSS</t>
   </si>
 </sst>
 </file>
@@ -241,18 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,6 +282,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19453,28 +19456,28 @@
     <tabColor rgb="FF735773"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD15"/>
+  <dimension ref="B1:AD16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.08203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.9140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.08203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.9140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.9140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.9140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.9140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.9140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.9140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" customWidth="1"/>
     <col min="15" max="15" width="5.9140625" customWidth="1"/>
     <col min="16" max="16" width="4.5" customWidth="1"/>
     <col min="17" max="17" width="5.25" customWidth="1"/>
@@ -19497,88 +19500,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="2:30" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:30" s="6" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="13">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="9">
         <v>13</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>14</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>15</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>16</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>17</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="9">
         <v>18</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="9">
         <v>19</v>
       </c>
       <c r="O4">
@@ -19628,401 +19631,437 @@
       </c>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>13</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>19</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <v>100</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>14</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>17</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>100</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>15</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>19</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>100</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>16</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>4</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>16</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>4</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>100</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>15</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>5</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>15</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>100</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>20</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>27</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>100</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>18</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>19</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="12">
         <v>100</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="2:30" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>22</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>4</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>26</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>10</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <v>100</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="2:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>22</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>26</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>5</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <v>100</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="2:30" ht="35.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>24</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>6</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>25</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="11">
         <v>9</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <v>100</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="2:30" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="2:30" ht="35.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>26</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>100</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="2:30" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="2">
         <v>20</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="2">
         <v>34</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="2">
         <v>14</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="12">
         <v>100</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20430,7 +20469,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="expression" dxfId="751" priority="123">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20456,7 +20495,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="expression" dxfId="743" priority="131">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20482,7 +20521,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="expression" dxfId="735" priority="139">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20508,7 +20547,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="expression" dxfId="727" priority="147">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20534,7 +20573,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="expression" dxfId="719" priority="155">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20560,7 +20599,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="expression" dxfId="711" priority="163">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20586,7 +20625,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="expression" dxfId="703" priority="171">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20690,7 +20729,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="expression" dxfId="671" priority="203">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20794,7 +20833,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="expression" dxfId="639" priority="235">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -20898,7 +20937,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="expression" dxfId="607" priority="267">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21002,7 +21041,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="expression" dxfId="575" priority="299">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21106,7 +21145,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14">
+  <conditionalFormatting sqref="T14:T15">
     <cfRule type="expression" dxfId="543" priority="331">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21210,7 +21249,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
+  <conditionalFormatting sqref="U14:U15">
     <cfRule type="expression" dxfId="511" priority="363">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21314,7 +21353,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="V14:V15">
     <cfRule type="expression" dxfId="479" priority="395">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21418,7 +21457,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+  <conditionalFormatting sqref="W14:W15">
     <cfRule type="expression" dxfId="447" priority="427">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21522,7 +21561,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
+  <conditionalFormatting sqref="X14:X15">
     <cfRule type="expression" dxfId="415" priority="459">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21626,7 +21665,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
+  <conditionalFormatting sqref="Y14:Y15">
     <cfRule type="expression" dxfId="383" priority="491">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21730,7 +21769,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z14">
+  <conditionalFormatting sqref="Z14:Z15">
     <cfRule type="expression" dxfId="351" priority="523">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21834,7 +21873,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA14">
+  <conditionalFormatting sqref="AA14:AA15">
     <cfRule type="expression" dxfId="319" priority="555">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -21938,7 +21977,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14">
+  <conditionalFormatting sqref="AB14:AB15">
     <cfRule type="expression" dxfId="287" priority="587">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22042,7 +22081,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
+  <conditionalFormatting sqref="AC14:AC15">
     <cfRule type="expression" dxfId="255" priority="619">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22146,7 +22185,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD14">
+  <conditionalFormatting sqref="AD14:AD15">
     <cfRule type="expression" dxfId="223" priority="651">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22250,7 +22289,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="expression" dxfId="191" priority="683">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22276,7 +22315,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H16">
     <cfRule type="expression" dxfId="183" priority="691">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22302,7 +22341,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="175" priority="699">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22328,7 +22367,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="J16">
     <cfRule type="expression" dxfId="167" priority="707">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22354,7 +22393,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="159" priority="715">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22380,7 +22419,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="L16">
     <cfRule type="expression" dxfId="151" priority="723">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22406,7 +22445,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
+  <conditionalFormatting sqref="M16">
     <cfRule type="expression" dxfId="143" priority="731">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22432,7 +22471,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="N16">
     <cfRule type="expression" dxfId="135" priority="739">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22458,7 +22497,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
+  <conditionalFormatting sqref="O16">
     <cfRule type="expression" dxfId="127" priority="747">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22484,7 +22523,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
+  <conditionalFormatting sqref="P16">
     <cfRule type="expression" dxfId="119" priority="755">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22510,7 +22549,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q15">
+  <conditionalFormatting sqref="Q16">
     <cfRule type="expression" dxfId="111" priority="763">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22536,7 +22575,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
+  <conditionalFormatting sqref="R16">
     <cfRule type="expression" dxfId="103" priority="771">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22562,7 +22601,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S15">
+  <conditionalFormatting sqref="S16">
     <cfRule type="expression" dxfId="95" priority="779">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22588,7 +22627,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
+  <conditionalFormatting sqref="T16">
     <cfRule type="expression" dxfId="87" priority="787">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22614,7 +22653,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U15">
+  <conditionalFormatting sqref="U16">
     <cfRule type="expression" dxfId="79" priority="795">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22640,7 +22679,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15">
+  <conditionalFormatting sqref="V16">
     <cfRule type="expression" dxfId="71" priority="803">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22666,7 +22705,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
+  <conditionalFormatting sqref="W16">
     <cfRule type="expression" dxfId="63" priority="811">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22692,7 +22731,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X15">
+  <conditionalFormatting sqref="X16">
     <cfRule type="expression" dxfId="55" priority="819">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22718,7 +22757,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
+  <conditionalFormatting sqref="Y16">
     <cfRule type="expression" dxfId="47" priority="827">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22744,7 +22783,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15">
+  <conditionalFormatting sqref="Z16">
     <cfRule type="expression" dxfId="39" priority="835">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22770,7 +22809,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA15">
+  <conditionalFormatting sqref="AA16">
     <cfRule type="expression" dxfId="31" priority="843">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22796,7 +22835,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB15">
+  <conditionalFormatting sqref="AB16">
     <cfRule type="expression" dxfId="23" priority="851">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22822,7 +22861,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC15">
+  <conditionalFormatting sqref="AC16">
     <cfRule type="expression" dxfId="15" priority="859">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -22848,7 +22887,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD15">
+  <conditionalFormatting sqref="AD16">
     <cfRule type="expression" dxfId="7" priority="867">
       <formula>PercentComplete</formula>
     </cfRule>
